--- a/CustomBasicScaffolder/Demo/WebApp/ExcelTemplate/Code.xlsx
+++ b/CustomBasicScaffolder/Demo/WebApp/ExcelTemplate/Code.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\开源项目\easyui-mvc5-scaffolder\MVC5-Scaffolder\CustomBasicScaffolder\Demo\WebApp\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Value</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Key</t>
   </si>
   <si>
-    <t>类型</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -42,6 +39,18 @@
   </si>
   <si>
     <t>修改</t>
+  </si>
+  <si>
+    <t>记录状态</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>代码名称</t>
+  </si>
+  <si>
+    <t>是否禁用</t>
   </si>
 </sst>
 </file>
@@ -73,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -96,14 +105,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -418,48 +439,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
